--- a/Framework/data/input/sample_rag_answer_similarity_input.xlsx
+++ b/Framework/data/input/sample_rag_answer_similarity_input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ananddas/github/llm-judge-tmp/llm_judge_app_test/sample_inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ananddas/github/JudgeIt-LLM-as-a-Judge/Framework/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF1283A-3F2E-484D-85E8-91ED6DCE4906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BA2595-67AD-694F-9202-8D0C9583D153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="1680" windowWidth="27240" windowHeight="16420" xr2:uid="{6525871D-7B0F-9343-8D61-027E20DC5AA1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>golden_text</t>
   </si>
@@ -60,13 +60,25 @@
   </si>
   <si>
     <t>IBM is headquartered in Armonk, New York, a community 37 miles (60 km) north of Midtown Manhattan. A nickname for the company is the "Colossus of Armonk".</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>What is the largest star in the galaxy?</t>
+  </si>
+  <si>
+    <t>How many holes does Pebble Beach have?</t>
+  </si>
+  <si>
+    <t>Where are IBM's headquarters located?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,6 +95,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -124,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -132,11 +151,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,283 +494,295 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC49908A-3D89-3143-B1DA-28E7A408346F}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="35.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="119" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="102" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
